--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1296,7 +1296,7 @@
         <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
         <v>11</v>
@@ -1335,13 +1335,13 @@
         <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1878,10 +1878,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N12" t="n">
         <v>1.98</v>
@@ -1890,22 +1890,22 @@
         <v>1.65</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z12" t="n">
         <v>8.75</v>
@@ -1926,7 +1926,7 @@
         <v>7.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
@@ -1950,7 +1950,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -2018,37 +2018,37 @@
         <v>2.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>7.5</v>
       </c>
       <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
         <v>9</v>
       </c>
-      <c r="V13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W13" t="n">
+        <v>19</v>
+      </c>
+      <c r="X13" t="n">
         <v>17</v>
       </c>
-      <c r="X13" t="n">
-        <v>15</v>
-      </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
         <v>9.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>51</v>
@@ -2057,22 +2057,22 @@
         <v>251</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
         <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         <v>1.75</v>
       </c>
       <c r="P14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
         <v>1.7</v>
@@ -2151,10 +2151,10 @@
         <v>9.25</v>
       </c>
       <c r="W14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
@@ -2175,7 +2175,7 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF14" t="n">
         <v>14</v>
@@ -2187,7 +2187,7 @@
         <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ14" t="n">
         <v>32</v>
@@ -2339,13 +2339,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
@@ -2378,7 +2378,7 @@
         <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
         <v>11</v>
@@ -2387,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -2420,10 +2420,10 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2482,73 +2482,73 @@
         <v>4.33</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
         <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -2711,19 +2711,19 @@
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
         <v>1.8</v>
@@ -2738,10 +2738,10 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
         <v>8.5</v>
@@ -2756,13 +2756,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2777,13 +2777,13 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
@@ -2970,10 +2970,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -1025,7 +1025,7 @@
         <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1394,10 +1394,10 @@
         <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N8" t="n">
         <v>2.1</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1650,10 +1650,10 @@
         <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
         <v>2.63</v>
@@ -1671,19 +1671,19 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
@@ -1695,7 +1695,7 @@
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1787,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1802,10 +1802,10 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
@@ -1814,16 +1814,16 @@
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -1832,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1867,66 +1867,66 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="U12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA12" t="n">
         <v>7.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
@@ -1941,16 +1941,16 @@
         <v>35</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1997,7 +1997,7 @@
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2339,46 +2339,46 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
         <v>11</v>
@@ -2393,13 +2393,13 @@
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
@@ -2408,13 +2408,13 @@
         <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H17" t="n">
         <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2482,22 +2482,22 @@
         <v>4.33</v>
       </c>
       <c r="N17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q17" t="n">
         <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>7.5</v>
@@ -2509,16 +2509,16 @@
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
@@ -2533,7 +2533,7 @@
         <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.22</v>
@@ -2726,10 +2726,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2747,13 +2747,13 @@
         <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2786,10 +2786,10 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I20" t="n">
         <v>12</v>
@@ -2842,22 +2842,22 @@
         <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R20" t="n">
         <v>1.8</v>
@@ -2866,16 +2866,16 @@
         <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U20" t="n">
         <v>8.5</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -2884,25 +2884,25 @@
         <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
         <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AE20" t="n">
         <v>41</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -772,28 +772,28 @@
         <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -802,16 +802,16 @@
         <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
@@ -826,22 +826,22 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>1250</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>23</v>
@@ -1150,16 +1150,16 @@
         <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N6" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1168,19 +1168,19 @@
         <v>2.63</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
         <v>7.5</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1189,25 +1189,25 @@
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
         <v>351</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
@@ -1222,7 +1222,7 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1513,13 +1513,13 @@
         <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>1.7</v>
@@ -1629,7 +1629,7 @@
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
         <v>2.1</v>
@@ -1796,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>34</v>
@@ -1817,7 +1817,7 @@
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1832,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1873,39 +1873,39 @@
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="V12" t="n">
         <v>8.75</v>
@@ -1920,34 +1920,34 @@
         <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>7.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
         <v>35</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>100</v>
@@ -2225,86 +2225,86 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>4.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T15" t="n">
+        <v>17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" t="n">
+        <v>14</v>
+      </c>
+      <c r="W15" t="n">
+        <v>75</v>
+      </c>
+      <c r="X15" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB15" t="n">
         <v>13</v>
       </c>
-      <c r="U15" t="n">
-        <v>21</v>
-      </c>
-      <c r="V15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>50</v>
-      </c>
-      <c r="X15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AC15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="n">
         <v>250</v>
       </c>
       <c r="AE15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF15" t="n">
         <v>9.25</v>
       </c>
-      <c r="AF15" t="n">
-        <v>11</v>
-      </c>
       <c r="AG15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2345,7 +2345,7 @@
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2384,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="n">
         <v>19</v>
@@ -2411,7 +2411,7 @@
         <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>21</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2476,16 +2476,16 @@
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P17" t="n">
         <v>1.3</v>
@@ -2494,43 +2494,43 @@
         <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -2539,10 +2539,10 @@
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -2839,7 +2839,7 @@
         <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L20" t="n">
         <v>1.07</v>
@@ -2869,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
         <v>11</v>
@@ -2902,7 +2902,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>34</v>
@@ -2970,10 +2970,10 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -3193,27 +3193,27 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N23" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
         <v>1.47</v>
@@ -3222,61 +3222,61 @@
         <v>2.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="U23" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="V23" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W23" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
         <v>37</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -686,16 +686,16 @@
         <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
@@ -719,16 +719,16 @@
         <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -1022,13 +1022,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
         <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
         <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>3.25</v>
@@ -1266,16 +1266,16 @@
         <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N7" t="n">
         <v>2.4</v>
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>3.25</v>
@@ -1448,19 +1448,19 @@
         <v>67</v>
       </c>
       <c r="AD8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1510,16 +1510,16 @@
         <v>9.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
         <v>1.7</v>
@@ -1766,10 +1766,10 @@
         <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>6.2</v>
@@ -1878,55 +1878,55 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N12" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
         <v>9.75</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>175</v>
@@ -1950,7 +1950,7 @@
         <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2121,10 +2121,10 @@
         <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
         <v>1.75</v>
@@ -2136,34 +2136,34 @@
         <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="V14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2175,22 +2175,22 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -2360,10 +2360,10 @@
         <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>9.5</v>
@@ -2473,7 +2473,7 @@
         <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
         <v>1.18</v>
@@ -2488,19 +2488,19 @@
         <v>2.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
         <v>6.5</v>
@@ -2515,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
@@ -2533,13 +2533,13 @@
         <v>351</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>101</v>
@@ -2592,10 +2592,10 @@
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2720,16 +2720,16 @@
         <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2839,7 +2839,7 @@
         <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
         <v>1.07</v>
@@ -2848,10 +2848,10 @@
         <v>7.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.17</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2964,10 +2964,10 @@
         <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N21" t="n">
         <v>1.62</v>
@@ -2976,10 +2976,10 @@
         <v>2.25</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
         <v>1.73</v>
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3006,10 +3006,10 @@
         <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3021,13 +3021,13 @@
         <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3071,22 +3071,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
+        <v>23</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.02</v>
       </c>
-      <c r="K22" t="n">
-        <v>12</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M22" t="n">
         <v>6.5</v>
@@ -3098,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>1.4</v>
@@ -3113,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="U22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
@@ -3134,16 +3134,16 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>29</v>
       </c>
       <c r="AD22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -790,16 +790,16 @@
         <v>2.63</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
         <v>2.2</v>
@@ -823,13 +823,13 @@
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -1022,13 +1022,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
         <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>3.25</v>
@@ -1257,43 +1257,43 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>6.5</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1388,22 +1388,22 @@
         <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1504,22 +1504,22 @@
         <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>1.7</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -1632,10 +1632,10 @@
         <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1644,10 +1644,10 @@
         <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1766,10 +1766,10 @@
         <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1778,19 +1778,19 @@
         <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -1799,34 +1799,34 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="n">
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -1923,7 +1923,7 @@
         <v>7.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB12" t="n">
         <v>26</v>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
@@ -2024,16 +2024,16 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
@@ -2066,10 +2066,10 @@
         <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2142,31 +2142,31 @@
         <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U14" t="n">
         <v>10.25</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
         <v>9.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>65</v>
@@ -2175,22 +2175,22 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH14" t="n">
         <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2242,10 +2242,10 @@
         <v>3.7</v>
       </c>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2256,28 +2256,28 @@
         <v>2.15</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="n">
+        <v>60</v>
+      </c>
+      <c r="X15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z15" t="n">
         <v>14</v>
       </c>
-      <c r="W15" t="n">
-        <v>75</v>
-      </c>
-      <c r="X15" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AA15" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2286,25 +2286,25 @@
         <v>45</v>
       </c>
       <c r="AD15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
@@ -2354,16 +2354,16 @@
         <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P16" t="n">
         <v>1.3</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2476,16 +2476,16 @@
         <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P17" t="n">
         <v>1.29</v>
@@ -2503,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="U17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
@@ -2527,19 +2527,19 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>101</v>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2598,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
@@ -2625,16 +2625,16 @@
         <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" t="n">
         <v>21</v>
-      </c>
-      <c r="X18" t="n">
-        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -2655,19 +2655,19 @@
         <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2747,25 +2747,25 @@
         <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
+        <v>19</v>
+      </c>
+      <c r="X19" t="n">
         <v>17</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2786,10 +2786,10 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2839,19 +2839,19 @@
         <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P20" t="n">
         <v>1.17</v>
@@ -2860,13 +2860,13 @@
         <v>4.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U20" t="n">
         <v>9</v>
@@ -2887,7 +2887,7 @@
         <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2970,10 +2970,10 @@
         <v>4.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P21" t="n">
         <v>1.3</v>
@@ -2991,25 +2991,25 @@
         <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
         <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -3024,10 +3024,10 @@
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
         <v>23</v>
@@ -3086,7 +3086,7 @@
         <v>1.02</v>
       </c>
       <c r="L22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M22" t="n">
         <v>6.5</v>
@@ -3125,7 +3125,7 @@
         <v>26</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
         <v>23</v>
@@ -3134,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>29</v>
@@ -3155,7 +3155,7 @@
         <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>17</v>
@@ -3193,13 +3193,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3222,34 +3222,34 @@
         <v>2.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U23" t="n">
         <v>9.75</v>
       </c>
       <c r="V23" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W23" t="n">
         <v>22</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
@@ -3261,19 +3261,19 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ23" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -772,7 +772,7 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
@@ -784,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -802,10 +802,10 @@
         <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
         <v>5.5</v>
@@ -814,13 +814,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1070,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
         <v>19</v>
@@ -1085,7 +1085,7 @@
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
@@ -1135,49 +1135,49 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1186,34 +1186,34 @@
         <v>13</v>
       </c>
       <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="n">
         <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1507,13 +1507,13 @@
         <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.22</v>
@@ -1564,13 +1564,13 @@
         <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -1579,10 +1579,10 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="n">
         <v>67</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1662,7 +1662,7 @@
         <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
         <v>5.5</v>
@@ -1707,7 +1707,7 @@
         <v>101</v>
       </c>
       <c r="AI10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="n">
         <v>81</v>
@@ -1754,10 +1754,10 @@
         <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2136,37 +2136,37 @@
         <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U14" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>9.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
         <v>65</v>
@@ -2175,22 +2175,22 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2242,54 +2242,54 @@
         <v>3.7</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF15" t="n">
         <v>10</v>
@@ -2304,7 +2304,7 @@
         <v>12.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -2705,31 +2705,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2744,7 +2744,7 @@
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
         <v>11</v>
@@ -2762,10 +2762,10 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2783,7 +2783,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>34</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2970,28 +2970,28 @@
         <v>4.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
@@ -3021,7 +3021,7 @@
         <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
@@ -3033,7 +3033,7 @@
         <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3071,31 +3071,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J22" t="n">
-        <v>23</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -3110,28 +3110,28 @@
         <v>2.75</v>
       </c>
       <c r="T22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W22" t="n">
         <v>41</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3193,33 +3193,33 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="N23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.32</v>
       </c>
       <c r="R23" t="n">
         <v>1.98</v>
@@ -3228,52 +3228,52 @@
         <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U23" t="n">
         <v>9.75</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>40</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ23" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -680,46 +680,46 @@
         <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
+        <v>23</v>
+      </c>
+      <c r="X2" t="n">
         <v>21</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -772,10 +772,10 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
@@ -790,25 +790,25 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
@@ -826,34 +826,34 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>1250</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
         <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
@@ -891,43 +891,43 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
@@ -939,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -963,7 +963,7 @@
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
@@ -975,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1022,13 +1022,13 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -1135,46 +1135,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
         <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1207,13 +1207,13 @@
         <v>251</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
         <v>2.5</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1314,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>351</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
         <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1522,10 +1522,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1543,13 +1543,13 @@
         <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1570,25 +1570,25 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1754,16 +1754,16 @@
         <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N11" t="n">
         <v>2.4</v>
@@ -1867,21 +1867,21 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="N12" t="n">
         <v>2.15</v>
@@ -1896,7 +1896,7 @@
         <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -1905,28 +1905,28 @@
         <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
         <v>175</v>
@@ -1935,22 +1935,22 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2107,87 +2107,87 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R14" t="n">
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T14" t="n">
         <v>7.7</v>
       </c>
       <c r="U14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
         <v>32</v>
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2242,30 +2242,30 @@
         <v>3.7</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
@@ -2274,37 +2274,37 @@
         <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>40</v>
       </c>
       <c r="AD15" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG15" t="n">
         <v>8.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2726,16 +2726,16 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
         <v>1.67</v>
@@ -2747,16 +2747,16 @@
         <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -2777,16 +2777,16 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -2848,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
         <v>1.17</v>
@@ -2949,85 +2949,85 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="n">
         <v>10</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
+        <v>10</v>
+      </c>
+      <c r="V21" t="n">
         <v>9</v>
       </c>
-      <c r="U21" t="n">
-        <v>9</v>
-      </c>
-      <c r="V21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3036,7 +3036,7 @@
         <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3080,13 +3080,13 @@
         <v>1.83</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M22" t="n">
         <v>6</v>
@@ -3193,90 +3193,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>2.92</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V23" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA23" t="n">
         <v>5.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
         <v>35</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -686,7 +686,7 @@
         <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
@@ -695,7 +695,7 @@
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -900,16 +900,16 @@
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
         <v>2.5</v>
@@ -918,7 +918,7 @@
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" t="n">
         <v>2.25</v>
@@ -1013,37 +1013,37 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1052,55 +1052,55 @@
         <v>1.73</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1135,34 +1135,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
         <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -1207,13 +1207,13 @@
         <v>251</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1263,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>2.5</v>
@@ -1284,7 +1284,7 @@
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
         <v>2.25</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1406,10 +1406,10 @@
         <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -1501,49 +1501,49 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
@@ -1552,43 +1552,43 @@
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
         <v>101</v>
       </c>
       <c r="AI9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1644,10 +1644,10 @@
         <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1671,7 +1671,7 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1680,13 +1680,13 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>101</v>
@@ -1695,16 +1695,16 @@
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="n">
         <v>81</v>
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -1757,40 +1757,40 @@
         <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
         <v>15</v>
@@ -1799,28 +1799,28 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1832,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1870,24 +1870,24 @@
         <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="N12" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
         <v>1.47</v>
@@ -1896,49 +1896,49 @@
         <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="V12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -1947,7 +1947,7 @@
         <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
         <v>100</v>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2024,22 +2024,22 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>9.5</v>
@@ -2054,22 +2054,22 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2228,7 +2228,7 @@
         <v>4.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>1.7</v>
@@ -2245,7 +2245,7 @@
         <v>1.47</v>
       </c>
       <c r="O15" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2256,22 +2256,22 @@
         <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="U15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V15" t="n">
         <v>14</v>
       </c>
       <c r="W15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y15" t="n">
         <v>32</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>30</v>
       </c>
       <c r="Z15" t="n">
         <v>16.5</v>
@@ -2292,7 +2292,7 @@
         <v>10.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>8.25</v>
@@ -2304,7 +2304,7 @@
         <v>11.75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="16">
@@ -2705,25 +2705,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
         <v>1.8</v>
@@ -2732,19 +2732,19 @@
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
         <v>10</v>
@@ -2777,7 +2777,7 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -2789,7 +2789,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2833,7 +2833,7 @@
         <v>7.5</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
@@ -2854,46 +2854,46 @@
         <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
         <v>15</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
         <v>151</v>
@@ -2902,16 +2902,16 @@
         <v>41</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -2949,37 +2949,37 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>1.03</v>
+        <v>10.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
         <v>1.57</v>
@@ -2991,10 +2991,10 @@
         <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -3003,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>51</v>
@@ -3071,22 +3071,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M22" t="n">
         <v>6</v>
@@ -3110,28 +3110,28 @@
         <v>2.75</v>
       </c>
       <c r="T22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>41</v>
       </c>
       <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="n">
         <v>23</v>
       </c>
-      <c r="Y22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>21</v>
-      </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -662,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>2.2</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -802,25 +802,25 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -829,7 +829,7 @@
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -841,22 +841,22 @@
         <v>1250</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
         <v>2.25</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1034,16 +1034,16 @@
         <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
@@ -1055,16 +1055,16 @@
         <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1085,19 +1085,19 @@
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
       </c>
       <c r="AH5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI5" t="n">
         <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
@@ -1144,10 +1144,10 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1162,19 +1162,19 @@
         <v>1.93</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1284,7 +1284,7 @@
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
         <v>2.25</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -1406,16 +1406,16 @@
         <v>1.67</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -1460,10 +1460,10 @@
         <v>19</v>
       </c>
       <c r="AH8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI8" t="n">
         <v>51</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1754,10 +1754,10 @@
         <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1893,37 +1893,37 @@
         <v>1.47</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
         <v>37</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB12" t="n">
         <v>22</v>
@@ -1935,22 +1935,22 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1997,7 +1997,7 @@
         <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
         <v>1.3</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
@@ -2747,7 +2747,7 @@
         <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
@@ -2777,10 +2777,10 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="P20" t="n">
         <v>1.14</v>
@@ -2860,22 +2860,22 @@
         <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
+        <v>11</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12</v>
+      </c>
+      <c r="W20" t="n">
         <v>10</v>
-      </c>
-      <c r="V20" t="n">
-        <v>11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>10</v>
@@ -2890,13 +2890,13 @@
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE20" t="n">
         <v>41</v>
@@ -2905,7 +2905,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH20" t="n">
         <v>126</v>
@@ -2914,7 +2914,7 @@
         <v>51</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2970,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.29</v>
@@ -2994,7 +2994,7 @@
         <v>9.5</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -3009,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3080,10 +3080,10 @@
         <v>1.8</v>
       </c>
       <c r="J22" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.02</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12</v>
       </c>
       <c r="L22" t="n">
         <v>1.11</v>
@@ -3128,10 +3128,10 @@
         <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3149,7 +3149,7 @@
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
@@ -3193,13 +3193,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.11</v>
@@ -3211,52 +3211,52 @@
         <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N23" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S23" t="n">
         <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
         <v>45</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
         <v>120</v>
@@ -3265,22 +3265,22 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI23" t="n">
         <v>40</v>
       </c>
-      <c r="AI23" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -796,16 +796,16 @@
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -814,7 +814,7 @@
         <v>6.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
         <v>12</v>
@@ -826,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>1250</v>
@@ -847,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>67</v>
@@ -856,7 +856,7 @@
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -906,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N4" t="n">
         <v>2.5</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
@@ -1034,10 +1034,10 @@
         <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1058,10 +1058,10 @@
         <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -1073,22 +1073,22 @@
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>4.75</v>
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
@@ -1210,10 +1210,10 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1257,46 +1257,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.88</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>11</v>
@@ -1308,31 +1308,31 @@
         <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="n">
         <v>351</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1394,16 +1394,16 @@
         <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1516,16 +1516,16 @@
         <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1558,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>8.5</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>9.5</v>
@@ -1635,7 +1635,7 @@
         <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1662,7 +1662,7 @@
         <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U10" t="n">
         <v>5.5</v>
@@ -1683,7 +1683,7 @@
         <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1793,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1820,7 +1820,7 @@
         <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1893,40 +1893,40 @@
         <v>1.47</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U12" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
         <v>37</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
@@ -1935,22 +1935,22 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1985,31 +1985,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
         <v>3.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="N13" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P13" t="n">
         <v>1.4</v>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>6</v>
@@ -2051,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="n">
         <v>201</v>
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2604,10 +2604,10 @@
         <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2625,10 +2625,10 @@
         <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
@@ -2661,13 +2661,13 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3080,22 +3080,22 @@
         <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>1.02</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -3128,10 +3128,10 @@
         <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -3149,7 +3149,7 @@
         <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
@@ -3193,73 +3193,73 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.5</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.27</v>
       </c>
-      <c r="N23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R23" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="U23" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
@@ -3268,19 +3268,19 @@
         <v>7.8</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>50</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -659,7 +659,7 @@
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -680,10 +680,10 @@
         <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -704,10 +704,10 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -769,37 +769,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.44</v>
       </c>
-      <c r="M3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
         <v>2.38</v>
@@ -811,46 +811,46 @@
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>1250</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1013,52 +1013,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
         <v>17</v>
@@ -1073,10 +1073,10 @@
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>67</v>
@@ -1085,19 +1085,19 @@
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1144,22 +1144,22 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
         <v>1.62</v>
@@ -1290,10 +1290,10 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>6</v>
@@ -1308,13 +1308,13 @@
         <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1332,13 +1332,13 @@
         <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
@@ -1522,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.4</v>
@@ -1656,22 +1656,22 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
         <v>4.75</v>
       </c>
       <c r="U10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1683,13 +1683,13 @@
         <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD10" t="n">
         <v>101</v>
@@ -1710,7 +1710,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1757,7 +1757,7 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -2592,22 +2592,22 @@
         <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -3193,13 +3193,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>1.1</v>
@@ -3208,16 +3208,16 @@
         <v>6.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N23" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3226,61 +3226,61 @@
         <v>2.27</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
         <v>1.65</v>
       </c>
       <c r="T23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U23" t="n">
         <v>9.25</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
         <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD23" t="n">
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI23" t="n">
         <v>45</v>
       </c>
-      <c r="AI23" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-17.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -686,7 +686,7 @@
         <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U2" t="n">
         <v>10</v>
@@ -707,25 +707,25 @@
         <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,19 +930,19 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -963,19 +963,19 @@
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
       </c>
       <c r="AH4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI4" t="n">
         <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
@@ -1028,22 +1028,22 @@
         <v>7.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
         <v>2.1</v>
@@ -1055,16 +1055,16 @@
         <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W5" t="n">
+        <v>15</v>
+      </c>
+      <c r="X5" t="n">
         <v>17</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1073,10 +1073,10 @@
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>67</v>
@@ -1085,22 +1085,22 @@
         <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1183,22 +1183,22 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
         <v>13</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>51</v>
@@ -1210,10 +1210,10 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N7" t="n">
         <v>2.7</v>
@@ -1290,25 +1290,25 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
@@ -1332,13 +1332,13 @@
         <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
@@ -1379,31 +1379,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1745,64 +1745,64 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.57</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
       </c>
       <c r="U11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V11" t="n">
         <v>8</v>
       </c>
-      <c r="V11" t="n">
-        <v>9</v>
-      </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -1817,10 +1817,10 @@
         <v>1250</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2598,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
@@ -2625,10 +2625,10 @@
         <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>23</v>
@@ -2661,13 +2661,13 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
